--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9770540988343066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7840925656341086</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.9325965899342001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9938575487103106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9877241085388736</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.1534393467511514</v>
       </c>
       <c r="H2" t="n">
-        <v>1.511049905005503</v>
+        <v>1.443774007767038</v>
       </c>
       <c r="I2" t="n">
-        <v>1.034094699749041</v>
+        <v>0.3171481219066654</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.04128868561115726</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.1792184037589113</v>
       </c>
       <c r="L2" t="n">
-        <v>1.386477123465673</v>
+        <v>1.536149519769025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.478254792363532</v>
+        <v>0.3917133476806112</v>
       </c>
       <c r="N2" t="n">
-        <v>1.015488965449948</v>
+        <v>1.010390596754276</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4083893958497892</v>
       </c>
       <c r="P2" t="n">
-        <v>156.9504466003511</v>
+        <v>157.748899850426</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.8038851152025</v>
+        <v>251.6023383652775</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_22</t>
+          <t>model_18_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9767736013820878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7829860038912257</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.9096848579026429</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9911410410486087</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9834065892184364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.1553150345057108</v>
       </c>
       <c r="H3" t="n">
-        <v>1.511049905005503</v>
+        <v>1.451173591236943</v>
       </c>
       <c r="I3" t="n">
-        <v>1.034094699749041</v>
+        <v>0.4249529462670891</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.05954866448841505</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.2422508053777521</v>
       </c>
       <c r="L3" t="n">
-        <v>1.386477123465673</v>
+        <v>1.661011363658904</v>
       </c>
       <c r="M3" t="n">
-        <v>0.478254792363532</v>
+        <v>0.3941002848333287</v>
       </c>
       <c r="N3" t="n">
-        <v>1.015488965449948</v>
+        <v>1.010517614468489</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4108779498587389</v>
       </c>
       <c r="P3" t="n">
-        <v>156.9504466003511</v>
+        <v>157.7245994881506</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.8038851152025</v>
+        <v>251.578038003002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_21</t>
+          <t>model_18_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9758483901873847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7813684540693162</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.8859576217634451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9882295556031025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9789127679011504</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.1615019260248964</v>
       </c>
       <c r="H4" t="n">
-        <v>1.511049905005503</v>
+        <v>1.461990154344185</v>
       </c>
       <c r="I4" t="n">
-        <v>1.034094699749041</v>
+        <v>0.536594899875023</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.07911925635012786</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.3078570781125754</v>
       </c>
       <c r="L4" t="n">
-        <v>1.386477123465673</v>
+        <v>1.774543438777799</v>
       </c>
       <c r="M4" t="n">
-        <v>0.478254792363532</v>
+        <v>0.4018730222656112</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015488965449948</v>
+        <v>1.010936578028354</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4189815888152984</v>
       </c>
       <c r="P4" t="n">
-        <v>156.9504466003511</v>
+        <v>157.6464764210796</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.8038851152025</v>
+        <v>251.499914935931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_20</t>
+          <t>model_18_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9744724584287262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7794119628951222</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.8621188199312426</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9852171180119036</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9743777276770079</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.170702788030629</v>
       </c>
       <c r="H5" t="n">
-        <v>1.511049905005503</v>
+        <v>1.475073219834834</v>
       </c>
       <c r="I5" t="n">
-        <v>1.034094699749041</v>
+        <v>0.6487617950248026</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.09936843420442011</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.3740651146146113</v>
       </c>
       <c r="L5" t="n">
-        <v>1.386477123465673</v>
+        <v>1.877594959824618</v>
       </c>
       <c r="M5" t="n">
-        <v>0.478254792363532</v>
+        <v>0.4131619392328255</v>
       </c>
       <c r="N5" t="n">
-        <v>1.015488965449948</v>
+        <v>1.011559641466237</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4307510983490867</v>
       </c>
       <c r="P5" t="n">
-        <v>156.9504466003511</v>
+        <v>157.5356626327764</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.8038851152025</v>
+        <v>251.3891011476278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_19</t>
+          <t>model_18_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9727953763295695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7772473598278201</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.8386753721949689</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9821778729579576</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9699002259323346</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.1819174437499427</v>
       </c>
       <c r="H6" t="n">
-        <v>1.511049905005503</v>
+        <v>1.489547930512963</v>
       </c>
       <c r="I6" t="n">
-        <v>1.034094699749041</v>
+        <v>0.7590684607160205</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.1197978080178167</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.4394331343669186</v>
       </c>
       <c r="L6" t="n">
-        <v>1.386477123465673</v>
+        <v>1.971007651545542</v>
       </c>
       <c r="M6" t="n">
-        <v>0.478254792363532</v>
+        <v>0.4265178117616458</v>
       </c>
       <c r="N6" t="n">
-        <v>1.015488965449948</v>
+        <v>1.012319074869629</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4446755580219264</v>
       </c>
       <c r="P6" t="n">
-        <v>156.9504466003511</v>
+        <v>157.4084046011702</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.8038851152025</v>
+        <v>251.2618431160217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_18</t>
+          <t>model_18_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9709313701126916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7749736260069208</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.8159817386627735</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9791693822521572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9655506341266019</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.1943820619051646</v>
       </c>
       <c r="H7" t="n">
-        <v>1.511049905005503</v>
+        <v>1.504752399042899</v>
       </c>
       <c r="I7" t="n">
-        <v>1.034094699749041</v>
+        <v>0.8658470828502405</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.1400204554687436</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.5029337691594921</v>
       </c>
       <c r="L7" t="n">
-        <v>1.386477123465673</v>
+        <v>2.055591292088244</v>
       </c>
       <c r="M7" t="n">
-        <v>0.478254792363532</v>
+        <v>0.4408878110190445</v>
       </c>
       <c r="N7" t="n">
-        <v>1.015488965449948</v>
+        <v>1.013163153156517</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4596573178977118</v>
       </c>
       <c r="P7" t="n">
-        <v>156.9504466003511</v>
+        <v>157.2758593307274</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.8038851152025</v>
+        <v>251.1292978455789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_17</t>
+          <t>model_18_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9689672872672767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.772664502990883</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.7942798025511343</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9762347992538344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9613778653416769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.207515892936224</v>
       </c>
       <c r="H8" t="n">
-        <v>1.511049905005503</v>
+        <v>1.520193515283678</v>
       </c>
       <c r="I8" t="n">
-        <v>1.034094699749041</v>
+        <v>0.9679595467867955</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.1597463058016529</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.5638529262942242</v>
       </c>
       <c r="L8" t="n">
-        <v>1.386477123465673</v>
+        <v>2.132107708819636</v>
       </c>
       <c r="M8" t="n">
-        <v>0.478254792363532</v>
+        <v>0.4555391233870303</v>
       </c>
       <c r="N8" t="n">
-        <v>1.015488965449948</v>
+        <v>1.014052549161988</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4749323669656005</v>
       </c>
       <c r="P8" t="n">
-        <v>156.9504466003511</v>
+        <v>157.1450946995614</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.8038851152025</v>
+        <v>250.9985332144128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_16</t>
+          <t>model_18_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.966967995610426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7703741022645411</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.7737217387314465</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9734059042976266</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9574137582612978</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.220885165451476</v>
       </c>
       <c r="H9" t="n">
-        <v>1.511049905005503</v>
+        <v>1.535509435487051</v>
       </c>
       <c r="I9" t="n">
-        <v>1.034094699749041</v>
+        <v>1.064689835715598</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.1787617361185221</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.62172578591706</v>
       </c>
       <c r="L9" t="n">
-        <v>1.386477123465673</v>
+        <v>2.201276073768444</v>
       </c>
       <c r="M9" t="n">
-        <v>0.478254792363532</v>
+        <v>0.4699842183004404</v>
       </c>
       <c r="N9" t="n">
-        <v>1.015488965449948</v>
+        <v>1.014957888780184</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.4899924194749433</v>
       </c>
       <c r="P9" t="n">
-        <v>156.9504466003511</v>
+        <v>157.0202246517038</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.8038851152025</v>
+        <v>250.8736631665553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_15</t>
+          <t>model_18_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.964981455975334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7681414472267085</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.7543956942709711</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9707048258622798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9536776159461797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.2341691651385105</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511049905005503</v>
+        <v>1.550439210005468</v>
       </c>
       <c r="I10" t="n">
-        <v>1.034094699749041</v>
+        <v>1.155623197967464</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.1969180019264929</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.6762705384551498</v>
       </c>
       <c r="L10" t="n">
-        <v>1.386477123465673</v>
+        <v>2.263751856127351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.478254792363532</v>
+        <v>0.483910286249952</v>
       </c>
       <c r="N10" t="n">
-        <v>1.015488965449948</v>
+        <v>1.015857453897962</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5045113489680003</v>
       </c>
       <c r="P10" t="n">
-        <v>156.9504466003511</v>
+        <v>156.9034229937372</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.8038851152025</v>
+        <v>250.7568615085887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_14</t>
+          <t>model_18_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9630422290130651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7659937282373477</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.7363408527097312</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9681458287740454</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9501790283911697</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.2471367847645216</v>
       </c>
       <c r="H11" t="n">
-        <v>1.511049905005503</v>
+        <v>1.564801016776662</v>
       </c>
       <c r="I11" t="n">
-        <v>1.034094699749041</v>
+        <v>1.240575266221575</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.2141192170884803</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.7273471774923398</v>
       </c>
       <c r="L11" t="n">
-        <v>1.386477123465673</v>
+        <v>2.3201568924481</v>
       </c>
       <c r="M11" t="n">
-        <v>0.478254792363532</v>
+        <v>0.4971285394789979</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015488965449948</v>
+        <v>1.016735594409178</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5182923306025631</v>
       </c>
       <c r="P11" t="n">
-        <v>156.9504466003511</v>
+        <v>156.7956266223289</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.8038851152025</v>
+        <v>250.6490651371803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_13</t>
+          <t>model_18_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9611745414364814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7639488476004423</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.7195587171241306</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9657377538016874</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9469202725224214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.2596260201890473</v>
       </c>
       <c r="H12" t="n">
-        <v>1.511049905005503</v>
+        <v>1.578475143011457</v>
       </c>
       <c r="I12" t="n">
-        <v>1.034094699749041</v>
+        <v>1.319538968167225</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.2303059552118554</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.7749224616895403</v>
       </c>
       <c r="L12" t="n">
-        <v>1.386477123465673</v>
+        <v>2.371055617206149</v>
       </c>
       <c r="M12" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5095351020185432</v>
       </c>
       <c r="N12" t="n">
-        <v>1.015488965449948</v>
+        <v>1.017581339726876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5312270661945419</v>
       </c>
       <c r="P12" t="n">
-        <v>156.9504466003511</v>
+        <v>156.6970261346441</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.8038851152025</v>
+        <v>250.5504646494955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_23</t>
+          <t>model_18_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9593946136717997</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7620181477108685</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.704026408833713</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9634840660251718</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9438984682011922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.2715284053472876</v>
       </c>
       <c r="H13" t="n">
-        <v>1.511049905005503</v>
+        <v>1.591385742063092</v>
       </c>
       <c r="I13" t="n">
-        <v>1.034094699749041</v>
+        <v>1.39262195311372</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.2454549245209738</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.8190384388173466</v>
       </c>
       <c r="L13" t="n">
-        <v>1.386477123465673</v>
+        <v>2.416967660119165</v>
       </c>
       <c r="M13" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5210838755395215</v>
       </c>
       <c r="N13" t="n">
-        <v>1.015488965449948</v>
+        <v>1.018387344752393</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.543267494913565</v>
       </c>
       <c r="P13" t="n">
-        <v>156.9504466003511</v>
+        <v>156.6073770426678</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.8038851152025</v>
+        <v>250.4608155575193</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9577127005793986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7602075011635676</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6897029854989003</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9613850785052179</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.941107085390928</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.2827753659406713</v>
       </c>
       <c r="H14" t="n">
-        <v>1.511049905005503</v>
+        <v>1.603493543862154</v>
       </c>
       <c r="I14" t="n">
-        <v>1.034094699749041</v>
+        <v>1.460016863927214</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.2595640206661226</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.8597904422966682</v>
       </c>
       <c r="L14" t="n">
-        <v>1.386477123465673</v>
+        <v>2.458365791519663</v>
       </c>
       <c r="M14" t="n">
-        <v>0.478254792363532</v>
+        <v>0.531766270029109</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015488965449948</v>
+        <v>1.019148965775367</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5544046610521793</v>
       </c>
       <c r="P14" t="n">
-        <v>156.9504466003511</v>
+        <v>156.5262049129202</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.8038851152025</v>
+        <v>250.3796434277716</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_10</t>
+          <t>model_18_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9561341467672815</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7585187938572591</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6765339542837447</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9594378652854139</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9385366691720382</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.2933311625508709</v>
       </c>
       <c r="H15" t="n">
-        <v>1.511049905005503</v>
+        <v>1.614785937395221</v>
       </c>
       <c r="I15" t="n">
-        <v>1.034094699749041</v>
+        <v>1.521980101590408</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.2726529115109446</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.8973165065506761</v>
       </c>
       <c r="L15" t="n">
-        <v>1.386477123465673</v>
+        <v>2.495688806100068</v>
       </c>
       <c r="M15" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5416005562689822</v>
       </c>
       <c r="N15" t="n">
-        <v>1.015488965449948</v>
+        <v>1.019863782595948</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5646576132170628</v>
       </c>
       <c r="P15" t="n">
-        <v>156.9504466003511</v>
+        <v>156.4529061212003</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.8038851152025</v>
+        <v>250.3063446360517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_9</t>
+          <t>model_18_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9546611220536355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.756951220596296</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.664458111727273</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9576382827490465</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9361764029104149</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.303181285593676</v>
       </c>
       <c r="H16" t="n">
-        <v>1.511049905005503</v>
+        <v>1.625268307009293</v>
       </c>
       <c r="I16" t="n">
-        <v>1.034094699749041</v>
+        <v>1.578799642077853</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.2847494498587735</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.9317745459683131</v>
       </c>
       <c r="L16" t="n">
-        <v>1.386477123465673</v>
+        <v>2.529325132498222</v>
       </c>
       <c r="M16" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5506190022090375</v>
       </c>
       <c r="N16" t="n">
-        <v>1.015488965449948</v>
+        <v>1.020530812654957</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5740599930715431</v>
       </c>
       <c r="P16" t="n">
-        <v>156.9504466003511</v>
+        <v>156.3868487001897</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.8038851152025</v>
+        <v>250.2402872150411</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_8</t>
+          <t>model_18_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9532930435282826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.755501725934129</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6534096783278902</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9559799299247429</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9340142128869908</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.3123296329921333</v>
       </c>
       <c r="H17" t="n">
-        <v>1.511049905005503</v>
+        <v>1.634961084489513</v>
       </c>
       <c r="I17" t="n">
-        <v>1.034094699749041</v>
+        <v>1.630784992658847</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.2958966621305226</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.9633408273946846</v>
       </c>
       <c r="L17" t="n">
-        <v>1.386477123465673</v>
+        <v>2.559632566899467</v>
       </c>
       <c r="M17" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5588645927164587</v>
       </c>
       <c r="N17" t="n">
-        <v>1.015488965449948</v>
+        <v>1.021150319911721</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5826566154375906</v>
       </c>
       <c r="P17" t="n">
-        <v>156.9504466003511</v>
+        <v>156.3273922657849</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.8038851152025</v>
+        <v>250.1808307806364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_7</t>
+          <t>model_18_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9520274454910874</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7541659723417682</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6433202481444082</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9544558848382849</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9320374874678958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.3207926928944005</v>
       </c>
       <c r="H18" t="n">
-        <v>1.511049905005503</v>
+        <v>1.643893274912209</v>
       </c>
       <c r="I18" t="n">
-        <v>1.034094699749041</v>
+        <v>1.678258018588485</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3061410768542696</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7147738792774321</v>
+        <v>0.9921994708098472</v>
       </c>
       <c r="L18" t="n">
-        <v>1.386477123465673</v>
+        <v>2.586942146138577</v>
       </c>
       <c r="M18" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5663856397318002</v>
       </c>
       <c r="N18" t="n">
-        <v>1.015488965449948</v>
+        <v>1.021723420909696</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5904978489950888</v>
       </c>
       <c r="P18" t="n">
-        <v>156.9504466003511</v>
+        <v>156.2739203620196</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.8038851152025</v>
+        <v>250.127358876871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_6</t>
+          <t>model_18_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9508606871629589</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7529384329928465</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.634122746058754</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9530584625425249</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9302336327576247</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.328594811207024</v>
       </c>
       <c r="H19" t="n">
-        <v>1.511049905005503</v>
+        <v>1.652101836190748</v>
       </c>
       <c r="I19" t="n">
-        <v>1.034094699749041</v>
+        <v>1.721534323301412</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3155343511538162</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.018534337227614</v>
       </c>
       <c r="L19" t="n">
-        <v>1.386477123465673</v>
+        <v>2.61154004502384</v>
       </c>
       <c r="M19" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5732319000256563</v>
       </c>
       <c r="N19" t="n">
-        <v>1.015488965449948</v>
+        <v>1.022251764303566</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.5976355687633669</v>
       </c>
       <c r="P19" t="n">
-        <v>156.9504466003511</v>
+        <v>156.2258597282183</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.8038851152025</v>
+        <v>250.0792982430698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_5</t>
+          <t>model_18_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9497881407923668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7518132702650606</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6257501857313035</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9517798405954844</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9285900691230845</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.3357669337257955</v>
       </c>
       <c r="H20" t="n">
-        <v>1.511049905005503</v>
+        <v>1.65962580453235</v>
       </c>
       <c r="I20" t="n">
-        <v>1.034094699749041</v>
+        <v>1.760929092509809</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3241290663736999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.042529079441755</v>
       </c>
       <c r="L20" t="n">
-        <v>1.386477123465673</v>
+        <v>2.63369485525131</v>
       </c>
       <c r="M20" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5794539962117747</v>
       </c>
       <c r="N20" t="n">
-        <v>1.015488965449948</v>
+        <v>1.022737445678928</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.6041225524656432</v>
       </c>
       <c r="P20" t="n">
-        <v>156.9504466003511</v>
+        <v>156.1826760186615</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.8038851152025</v>
+        <v>250.0361145335129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_4</t>
+          <t>model_18_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9488046140199513</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7507840049434105</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6181380590444723</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.950611849063429</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9270945097291734</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.3423437817816627</v>
       </c>
       <c r="H21" t="n">
-        <v>1.511049905005503</v>
+        <v>1.666508506477556</v>
       </c>
       <c r="I21" t="n">
-        <v>1.034094699749041</v>
+        <v>1.796745851336809</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3319801396487091</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.064363075624611</v>
       </c>
       <c r="L21" t="n">
-        <v>1.386477123465673</v>
+        <v>2.653650002079264</v>
       </c>
       <c r="M21" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5851015140825246</v>
       </c>
       <c r="N21" t="n">
-        <v>1.015488965449948</v>
+        <v>1.023182816292852</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.6100104968641245</v>
       </c>
       <c r="P21" t="n">
-        <v>156.9504466003511</v>
+        <v>156.1438796738335</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.8038851152025</v>
+        <v>249.997318188685</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_3</t>
+          <t>model_18_7_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9479047892920867</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.749844311302761</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6112255139375906</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9495469970249608</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9257354382227704</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.3483609138802053</v>
       </c>
       <c r="H22" t="n">
-        <v>1.511049905005503</v>
+        <v>1.67279224217947</v>
       </c>
       <c r="I22" t="n">
-        <v>1.034094699749041</v>
+        <v>1.82927092233993</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3391379238891008</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.084204455514868</v>
       </c>
       <c r="L22" t="n">
-        <v>1.386477123465673</v>
+        <v>2.671615629326869</v>
       </c>
       <c r="M22" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5902210720401342</v>
       </c>
       <c r="N22" t="n">
-        <v>1.015488965449948</v>
+        <v>1.02359028409415</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.6153480050029355</v>
       </c>
       <c r="P22" t="n">
-        <v>156.9504466003511</v>
+        <v>156.1090324555647</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.8038851152025</v>
+        <v>249.9624709704161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_2</t>
+          <t>model_18_7_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9470829623292502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.748987678975179</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.6049539666478755</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9485771165359186</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9245015238640867</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.3538564745648578</v>
       </c>
       <c r="H23" t="n">
-        <v>1.511049905005503</v>
+        <v>1.67852054649844</v>
       </c>
       <c r="I23" t="n">
-        <v>1.034094699749041</v>
+        <v>1.858779955227736</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3456573228560375</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.102218639041887</v>
       </c>
       <c r="L23" t="n">
-        <v>1.386477123465673</v>
+        <v>2.68780204402233</v>
       </c>
       <c r="M23" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5948583651297659</v>
       </c>
       <c r="N23" t="n">
-        <v>1.015488965449948</v>
+        <v>1.023962432152792</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.6201827172599128</v>
       </c>
       <c r="P23" t="n">
-        <v>156.9504466003511</v>
+        <v>156.0777277742867</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.8038851152025</v>
+        <v>249.9311662891381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_1</t>
+          <t>model_18_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9463337477842182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7482079478796264</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.59926983880954</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9476950755170329</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9233824896239466</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.358866475677303</v>
       </c>
       <c r="H24" t="n">
-        <v>1.511049905005503</v>
+        <v>1.683734611924732</v>
       </c>
       <c r="I24" t="n">
-        <v>1.034094699749041</v>
+        <v>1.885525048196262</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3515862773739266</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.118555662785095</v>
       </c>
       <c r="L24" t="n">
-        <v>1.386477123465673</v>
+        <v>2.702371086317056</v>
       </c>
       <c r="M24" t="n">
-        <v>0.478254792363532</v>
+        <v>0.5990546516615183</v>
       </c>
       <c r="N24" t="n">
-        <v>1.015488965449948</v>
+        <v>1.024301699116581</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.6245576483968325</v>
       </c>
       <c r="P24" t="n">
-        <v>156.9504466003511</v>
+        <v>156.04960978745</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.8038851152025</v>
+        <v>249.9030483023014</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_7_11</t>
+          <t>model_18_7_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9456516064383408</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7474990169775106</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.59412095943844</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9468938634675075</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9223683166451638</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.3634279579981566</v>
       </c>
       <c r="H25" t="n">
-        <v>1.511049905005503</v>
+        <v>1.688475236131507</v>
       </c>
       <c r="I25" t="n">
-        <v>1.034094699749041</v>
+        <v>1.909751677396094</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3569719110339367</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.133361794215015</v>
       </c>
       <c r="L25" t="n">
-        <v>1.386477123465673</v>
+        <v>2.715490112142512</v>
       </c>
       <c r="M25" t="n">
-        <v>0.478254792363532</v>
+        <v>0.6028498635631898</v>
       </c>
       <c r="N25" t="n">
-        <v>1.015488965449948</v>
+        <v>1.02461059331094</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.6285144303263299</v>
       </c>
       <c r="P25" t="n">
-        <v>156.9504466003511</v>
+        <v>156.024348382954</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.8038851152025</v>
+        <v>249.8777868978055</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9657952012980306</v>
+        <v>0.9450313417931043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7740318731093239</v>
+        <v>0.7468552688947454</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3687968571961624</v>
+        <v>0.5894605946648391</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9691368141870659</v>
+        <v>0.9461666302462084</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9144457148538008</v>
+        <v>0.9214499003797232</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2287276464186851</v>
+        <v>0.367575670536909</v>
       </c>
       <c r="H26" t="n">
-        <v>1.511049905005503</v>
+        <v>1.692779982525145</v>
       </c>
       <c r="I26" t="n">
-        <v>1.034094699749041</v>
+        <v>1.931679736138295</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3954530903500817</v>
+        <v>0.3618602695123526</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7147738792774321</v>
+        <v>1.146769952604139</v>
       </c>
       <c r="L26" t="n">
-        <v>1.386477123465673</v>
+        <v>2.727303654032535</v>
       </c>
       <c r="M26" t="n">
-        <v>0.478254792363532</v>
+        <v>0.6062801914436171</v>
       </c>
       <c r="N26" t="n">
-        <v>1.015488965449948</v>
+        <v>1.024891467867274</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4986150889983492</v>
+        <v>0.6320907943663847</v>
       </c>
       <c r="P26" t="n">
-        <v>156.9504466003511</v>
+        <v>156.0016521506043</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.8038851152025</v>
+        <v>249.8550906654557</v>
       </c>
     </row>
   </sheetData>
